--- a/src/main/resources/excel.xlsx
+++ b/src/main/resources/excel.xlsx
@@ -96,7 +96,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -109,6 +109,8 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,18 +413,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,8 +438,9 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -450,7 +454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -466,6 +470,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
